--- a/7rmartSupermarketProject/src/main/resources/TestData.xlsx
+++ b/7rmartSupermarketProject/src/main/resources/TestData.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shefe\eclipse-workspace\7rmartSupermarketProject\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shefe\git\7rmartsupermarket\7rmartSupermarketProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF1BEEA-44EC-49BA-9F16-799BD9F0688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461324D-E719-4929-89FA-C0CD8CEF0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BF78589A-F3B9-42FC-901C-8A3295B85C43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{BF78589A-F3B9-42FC-901C-8A3295B85C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Admin_Pageadd" sheetId="2" r:id="rId2"/>
     <sheet name="Admin_search" sheetId="3" r:id="rId3"/>
+    <sheet name="Add_Category" sheetId="4" r:id="rId4"/>
+    <sheet name="Add_SubCategory" sheetId="5" r:id="rId5"/>
+    <sheet name="Manage_News" sheetId="6" r:id="rId6"/>
+    <sheet name="ManageFooter_Text" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Username</t>
   </si>
@@ -81,13 +85,64 @@
   </si>
   <si>
     <t>Kala</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>smalltoys</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Helloo</t>
+  </si>
+  <si>
+    <t>helloo</t>
+  </si>
+  <si>
+    <t>Helloo world,How r u all</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ObsquraZone,Kochi,Ernakulam(Dis)</t>
+  </si>
+  <si>
+    <t>obsqura@Gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +155,20 @@
       <color rgb="FF17C6A3"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,14 +188,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B392498-CD35-4C1B-9766-A973A245D074}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -581,4 +654,158 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97BF7D-1806-4E40-A27B-8A5A4C6CA153}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD59AFD-0E4C-4333-B5BA-C4112BBA9984}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A09548-373E-4D56-A1EE-19DFDBED0A11}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BEA43E-66D6-4275-9395-A45AE9ABB166}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>768539549</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A9D25403-221D-45BB-BF31-070E56B89C71}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rmartSupermarketProject/src/main/resources/TestData.xlsx
+++ b/7rmartSupermarketProject/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shefe\git\7rmartsupermarket\7rmartSupermarketProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0461324D-E719-4929-89FA-C0CD8CEF0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5625C750-3B4E-4B30-AF28-CE421979DEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{BF78589A-F3B9-42FC-901C-8A3295B85C43}"/>
+    <workbookView xWindow="6768" yWindow="2796" windowWidth="17280" windowHeight="8880" xr2:uid="{BF78589A-F3B9-42FC-901C-8A3295B85C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Naseeb</t>
   </si>
   <si>
-    <t>FarhaNazneen</t>
-  </si>
-  <si>
     <t>Usertype</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>obsqura@Gmail.com</t>
+  </si>
+  <si>
+    <t>faizaan</t>
+  </si>
+  <si>
+    <t>farha</t>
   </si>
 </sst>
 </file>
@@ -149,12 +152,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -169,6 +166,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,13 +192,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC7C2EF5-A8AE-4F2A-8431-5296EE189FC9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,11 +550,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -580,13 +590,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,18 +609,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +643,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -668,22 +678,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -703,22 +713,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -741,22 +751,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BEA43E-66D6-4275-9395-A45AE9ABB166}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -782,21 +792,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C2">
         <v>768539549</v>
